--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\sakamoto5002\projects\myniche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9F29E8-902A-42ED-86BA-990041335116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4744E493-3770-4AE9-9A6A-81E7DDDC58AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA65148E-C5D4-4512-A99C-4B61D9C6BECC}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{CA65148E-C5D4-4512-A99C-4B61D9C6BECC}"/>
   </bookViews>
   <sheets>
     <sheet name="app" sheetId="1" r:id="rId1"/>
@@ -411,14 +411,6 @@
     <t>_error_messages.html.erb</t>
   </si>
   <si>
-    <t>_niche_header.html.erb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_post_header.html.erb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>_footer.html.erb</t>
   </si>
   <si>
@@ -427,6 +419,14 @@
   </si>
   <si>
     <t>views/post_function_parameters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_niches_header.html.erb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_posts_header.html.erb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21119274-142B-4575-A5F7-B83DADEAAB4B}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1243,7 +1243,7 @@
         <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -1251,7 +1251,7 @@
         <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
@@ -1259,7 +1259,7 @@
         <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
@@ -1376,7 +1376,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
         <v>85</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
         <v>85</v>
